--- a/202206_Azure_AZ-900/AZ-900.xlsx
+++ b/202206_Azure_AZ-900/AZ-900.xlsx
@@ -1,40 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\202206_Azure_AZ-900\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57E9A6-B800-4ADC-9988-FEA84D2E8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C777F-8410-4A97-A33F-AE836E16ABBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
-    <sheet name="S1-4.Cloud" sheetId="2" r:id="rId2"/>
-    <sheet name="S5.AZ" sheetId="9" r:id="rId3"/>
-    <sheet name="S6.Networking" sheetId="4" r:id="rId4"/>
-    <sheet name="S7.Compute" sheetId="3" r:id="rId5"/>
-    <sheet name="S8.Storage" sheetId="5" r:id="rId6"/>
-    <sheet name="S9.IAM" sheetId="6" r:id="rId7"/>
-    <sheet name="S10.Cost" sheetId="7" r:id="rId8"/>
-    <sheet name="S11.Compliance" sheetId="10" r:id="rId9"/>
-    <sheet name="S12-13.Tools" sheetId="8" r:id="rId10"/>
+    <sheet name="S1-3.Cloud" sheetId="2" r:id="rId2"/>
+    <sheet name="S4.Service" sheetId="12" r:id="rId3"/>
+    <sheet name="S5.AZ" sheetId="9" r:id="rId4"/>
+    <sheet name="S6.Compute" sheetId="4" r:id="rId5"/>
+    <sheet name="S7.Network" sheetId="3" r:id="rId6"/>
+    <sheet name="S8.Storage" sheetId="5" r:id="rId7"/>
+    <sheet name="S8-2.Database" sheetId="13" r:id="rId8"/>
+    <sheet name="S9.IAM" sheetId="6" r:id="rId9"/>
+    <sheet name="S10.Cost" sheetId="7" r:id="rId10"/>
+    <sheet name="S11.Compliance" sheetId="10" r:id="rId11"/>
+    <sheet name="S12.Deploy" sheetId="8" r:id="rId12"/>
+    <sheet name="S13.Monitor" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="844">
   <si>
     <t>AZ-900: Microsoft Azure Fundamentals Exam Prep - MAY 2022</t>
   </si>
@@ -63,9 +76,6 @@
     <t>Core architectural components of Azure</t>
   </si>
   <si>
-    <t>Azure compute and networking services</t>
-  </si>
-  <si>
     <t>Azure compute demo</t>
   </si>
   <si>
@@ -85,9 +95,6 @@
   </si>
   <si>
     <t>Monitoring tools</t>
-  </si>
-  <si>
-    <t>Course wrapup</t>
   </si>
   <si>
     <t>Section 2</t>
@@ -322,9 +329,6 @@
     <t>Economies of scale</t>
   </si>
   <si>
-    <t>Total cost of ownership (TCO) - electricity, Internet, cooling, employees</t>
-  </si>
-  <si>
     <t>Microsoft can run a server cheaper</t>
   </si>
   <si>
@@ -361,9 +365,6 @@
     <t>Global Reach</t>
   </si>
   <si>
-    <t>Security and Governance</t>
-  </si>
-  <si>
     <t>Manageability</t>
   </si>
   <si>
@@ -373,9 +374,6 @@
     <t>Range of tools</t>
   </si>
   <si>
-    <t>S1-4.Cloud</t>
-  </si>
-  <si>
     <t>Use of AI/ML in products like Azure Firewall</t>
   </si>
   <si>
@@ -383,9 +381,6 @@
   </si>
   <si>
     <t>Free basic DDoS protection</t>
-  </si>
-  <si>
-    <t>Cloud Models</t>
   </si>
   <si>
     <t>IaaS</t>
@@ -435,21 +430,12 @@
     </r>
   </si>
   <si>
-    <t>=&gt; VMs, networking, load balancers, firewalls</t>
-  </si>
-  <si>
     <t>a complete development and deployment environment in the cloud.</t>
   </si>
   <si>
-    <t>upload code packages and have them run, without access to the hardware.</t>
-  </si>
-  <si>
     <t>allows users to connect to and use cloud-based apps over the Internet.</t>
   </si>
   <si>
-    <t>=&gt; email, calendar, offtice 365…</t>
-  </si>
-  <si>
     <t>Don't have to access to any servers.</t>
   </si>
   <si>
@@ -462,9 +448,6 @@
     <t>Pay $0 if not use services.</t>
   </si>
   <si>
-    <t>=&gt; Azure functions, serverless kubernetes, SQL database serverless, Cosmos DB</t>
-  </si>
-  <si>
     <t>S5.AZ</t>
   </si>
   <si>
@@ -474,22 +457,10 @@
     <t>60+ regions</t>
   </si>
   <si>
-    <t>S12-13.Tools</t>
-  </si>
-  <si>
-    <t>S6.Networking</t>
-  </si>
-  <si>
-    <t>S7.Compute</t>
-  </si>
-  <si>
     <t>S8.Storage</t>
   </si>
   <si>
     <t>S9.IAM</t>
-  </si>
-  <si>
-    <t>Cloud Model: IaaS, PaaS, SaaS, Serverless</t>
   </si>
   <si>
     <t>Shared Responsibility Model;</t>
@@ -556,9 +527,6 @@
     <t>Data Centers</t>
   </si>
   <si>
-    <t>One or more discrete data centers</t>
-  </si>
-  <si>
     <t>Resouce Groups</t>
   </si>
   <si>
@@ -587,9 +555,6 @@
   </si>
   <si>
     <t>All resources consumed by a subscription will be billed to the owner.</t>
-  </si>
-  <si>
-    <t>Can be used to organize resources into completely distinct accounts.</t>
   </si>
   <si>
     <t>Management Groups</t>
@@ -842,9 +807,6 @@
     <t>a higher-level of load balancer with an optional firewall</t>
   </si>
   <si>
-    <t>stores common static files on the edge, closer to users to improve performance</t>
-  </si>
-  <si>
     <t>a load balancer, CDN and firewall all-in-one</t>
   </si>
   <si>
@@ -867,6 +829,2586 @@
   </si>
   <si>
     <t>S10.Cost</t>
+  </si>
+  <si>
+    <t>Microsoft accout:</t>
+  </si>
+  <si>
+    <t>rubik.hut@gmail.com</t>
+  </si>
+  <si>
+    <t>We might have certain IT rules that we want to implement.</t>
+  </si>
+  <si>
+    <t>Governance = sort of the policy or the way that we implement those rules</t>
+  </si>
+  <si>
+    <t>Compliance = make sure that rules are being followed.</t>
+  </si>
+  <si>
+    <t>Example: Always have daily backup enabled on every server.</t>
+  </si>
+  <si>
+    <t>Option 1) Send an email with the rules</t>
+  </si>
+  <si>
+    <t>assume everyone reads it and remember it.</t>
+  </si>
+  <si>
+    <t>Option 2) Use Azure tools to enforce the rules</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Azure Blueprints</t>
+  </si>
+  <si>
+    <t>Azure Policy</t>
+  </si>
+  <si>
+    <t>Resource Locks</t>
+  </si>
+  <si>
+    <t>Service Trust Portal</t>
+  </si>
+  <si>
+    <t>Create a Virtual Machine (VM)</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/free/</t>
+  </si>
+  <si>
+    <t>https://portal.azure.com</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Create a Resource &gt;&gt; Virtual Machine</t>
+  </si>
+  <si>
+    <t>Create a virtual machine</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Azure subscription 1</t>
+  </si>
+  <si>
+    <t>Resource group</t>
+  </si>
+  <si>
+    <t>Virtual machine name</t>
+  </si>
+  <si>
+    <t>Availability options</t>
+  </si>
+  <si>
+    <t>Security type</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Azure Spot instance</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Authentication type</t>
+  </si>
+  <si>
+    <t>SSH public key | Password</t>
+  </si>
+  <si>
+    <t>Inbound port rules</t>
+  </si>
+  <si>
+    <t>West US</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>demo-vm-rg</t>
+  </si>
+  <si>
+    <t>demovm</t>
+  </si>
+  <si>
+    <t>No infrastructure redundancy required</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>B2s (2 vCPU, 4 GB RAM, Temp storage 8GB)</t>
+  </si>
+  <si>
+    <t>Window server 2019 data center - Gen2</t>
+  </si>
+  <si>
+    <t>Connect to a VM</t>
+  </si>
+  <si>
+    <t>RDP; SSH; Bastion;</t>
+  </si>
+  <si>
+    <t>Change Instance size</t>
+  </si>
+  <si>
+    <t>Create a VM;</t>
+  </si>
+  <si>
+    <t>Create App Services;</t>
+  </si>
+  <si>
+    <t>Create Azure Functions;</t>
+  </si>
+  <si>
+    <t>Kubernetes and Azure Container Instances;</t>
+  </si>
+  <si>
+    <t>Create App Services</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Create a Resource &gt;&gt; Compute &gt;&gt; WebApp</t>
+  </si>
+  <si>
+    <t>Create WebApp</t>
+  </si>
+  <si>
+    <t>Instance Name</t>
+  </si>
+  <si>
+    <t>demovmabzy</t>
+  </si>
+  <si>
+    <t>Publish</t>
+  </si>
+  <si>
+    <t>Runtime stack</t>
+  </si>
+  <si>
+    <t>Node 14 LTS | Python 3.9…</t>
+  </si>
+  <si>
+    <t>App Service Plan</t>
+  </si>
+  <si>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>Windows Plan</t>
+  </si>
+  <si>
+    <t>Sku and size</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Scale up (App service plan)</t>
+  </si>
+  <si>
+    <t>Scale out (App service plan)</t>
+  </si>
+  <si>
+    <t>In Action</t>
+  </si>
+  <si>
+    <t>Console</t>
+  </si>
+  <si>
+    <t>B4ms (2 vCPU, 4 GB RAM, Temp storage 8GB)</t>
+  </si>
+  <si>
+    <t>Create Azure Functions</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Create a Resource &gt;&gt; Compute &gt;&gt; Function App</t>
+  </si>
+  <si>
+    <t>Create Function App</t>
+  </si>
+  <si>
+    <t>Function App name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>demofunction2022abzy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Docker Container</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Docker Container | Static Web app</t>
+    </r>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Hosting</t>
+  </si>
+  <si>
+    <t>Storage account</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Linux | Windows</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12 LTS | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14 LTS</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | 16 LTS</t>
+    </r>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consumption (Serverless)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Premium | App service plan</t>
+    </r>
+  </si>
+  <si>
+    <t>Functions &gt; Modify code</t>
+  </si>
+  <si>
+    <t>Kubernetes and Azure Container Instances</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Create a Resource &gt;&gt; Container Instances</t>
+  </si>
+  <si>
+    <t>Create container instance</t>
+  </si>
+  <si>
+    <t>Container details</t>
+  </si>
+  <si>
+    <t>Container name</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Image source</t>
+  </si>
+  <si>
+    <t>1vcpu, 1.5GB memory, 0 gpus</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>aci-helloworld-latest (Linux)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quickstart images</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Azure Container Registry | Other registry</t>
+    </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Private | None</t>
+    </r>
+  </si>
+  <si>
+    <t>DNS name label</t>
+  </si>
+  <si>
+    <t>tungbuitest.westus.azurecontainer.io</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>80 - TCP</t>
+  </si>
+  <si>
+    <t>Function details</t>
+  </si>
+  <si>
+    <t>VM details</t>
+  </si>
+  <si>
+    <t>App details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security </t>
+  </si>
+  <si>
+    <t>Data Governance</t>
+  </si>
+  <si>
+    <t>Azure Policy and Blueprints</t>
+  </si>
+  <si>
+    <t>Automation to act on events being monitored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Container (Blob) storage; Disk Storage; File Storage; </t>
+  </si>
+  <si>
+    <t>The Azure Storage account</t>
+  </si>
+  <si>
+    <t>S8.Storage!A1</t>
+  </si>
+  <si>
+    <t>Blob storage, table storage, queue, Files</t>
+  </si>
+  <si>
+    <t>A general purpose (gpv2) account supports many different types of storage/</t>
+  </si>
+  <si>
+    <t>Azure data lake storage gen2 (a huge storage for big data)</t>
+  </si>
+  <si>
+    <t>$$$ &lt;&lt; CosmosDB, SQL DB, Service bus queue…</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>Binary Large Object</t>
+  </si>
+  <si>
+    <t>A collection of binary data. That binary data could be in the form of a file (stored in a storage account) or data stored in a database.</t>
+  </si>
+  <si>
+    <t>~ AWS S3</t>
+  </si>
+  <si>
+    <t>Storage Options</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Redundancy / Replication</t>
+  </si>
+  <si>
+    <t>Failover options</t>
+  </si>
+  <si>
+    <t>When an Azure region goes down, make us of the backup in another region as primary storage account.</t>
+  </si>
+  <si>
+    <t>Disk Storage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unmanaged storage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the cheapest type of storage.</t>
+    </r>
+  </si>
+  <si>
+    <t>Managed Disks</t>
+  </si>
+  <si>
+    <t>Reserve capacity in advance</t>
+  </si>
+  <si>
+    <t>Optimized to virtual hard disks</t>
+  </si>
+  <si>
+    <t>DEMO: Create an Unmanaged Storage Account</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Storage &gt;&gt; Storage Account</t>
+  </si>
+  <si>
+    <t>Create a storage account</t>
+  </si>
+  <si>
+    <t>demo-storage-rg</t>
+  </si>
+  <si>
+    <t>Instance details</t>
+  </si>
+  <si>
+    <t>Storage account name</t>
+  </si>
+  <si>
+    <t>East US</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Redundancy</t>
+  </si>
+  <si>
+    <t>storage-tungbui-zyc</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Premium</t>
+    </r>
+  </si>
+  <si>
+    <t>Zone-redundant storage (ZRS) - store data in each zone of region</t>
+  </si>
+  <si>
+    <t>Geo-redundant storage (GRS) - store data in another region</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Locally-redundant storage (LRS)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - store data in the same data center</t>
+    </r>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Enable blob public access</t>
+  </si>
+  <si>
+    <t>Enable storage account key access</t>
+  </si>
+  <si>
+    <t>Require secure transfer for REST API operations</t>
+  </si>
+  <si>
+    <t>Default to Azure Active Directory authorization in Azure portal</t>
+  </si>
+  <si>
+    <t>Minimum TLS version</t>
+  </si>
+  <si>
+    <t>Data Lake Storage Gen2</t>
+  </si>
+  <si>
+    <t>Blob storage</t>
+  </si>
+  <si>
+    <t>Access tier</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Archive</t>
+  </si>
+  <si>
+    <t>Frequently accessed data and day-to-day usage scenarios</t>
+  </si>
+  <si>
+    <t>Infrequently accessed data and backup scenarios</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Auze Files</t>
+  </si>
+  <si>
+    <t>Enable large file shares</t>
+  </si>
+  <si>
+    <t>Network access</t>
+  </si>
+  <si>
+    <t>public, private access</t>
+  </si>
+  <si>
+    <t>Network routing</t>
+  </si>
+  <si>
+    <t>Data protection</t>
+  </si>
+  <si>
+    <t>Point-in-time recovery</t>
+  </si>
+  <si>
+    <t>Soft delete for blobs</t>
+  </si>
+  <si>
+    <t>retain deleted blobs for 7 days</t>
+  </si>
+  <si>
+    <t>Soft delete for containers</t>
+  </si>
+  <si>
+    <t>Soft delete for file shares</t>
+  </si>
+  <si>
+    <t>retain deleted containers for 7 days</t>
+  </si>
+  <si>
+    <t>retain deleted file shares for 7 days</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>Enable versioning for blobs</t>
+  </si>
+  <si>
+    <t>Enable blob change feed</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Enable support for CMK</t>
+  </si>
+  <si>
+    <t>DEMO: Upload a file to storage account</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Virtual Hard disks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relating to virtual machine.</t>
+    </r>
+  </si>
+  <si>
+    <t>Storage Tiers (Blob, Table, Queue, File);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft network routing</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Internet routing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft-manged keys (MMK</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) | Customer-managed keys (CMK)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blobs and files only</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | All service types</t>
+    </r>
+  </si>
+  <si>
+    <t>Create a container</t>
+  </si>
+  <si>
+    <t>Upload images/files/blobs into container</t>
+  </si>
+  <si>
+    <t>Example: orion1.png, orion2.png</t>
+  </si>
+  <si>
+    <t>Blob type</t>
+  </si>
+  <si>
+    <t>Azure AD user account</t>
+  </si>
+  <si>
+    <t>Block blob</t>
+  </si>
+  <si>
+    <t>Block size</t>
+  </si>
+  <si>
+    <t>Access Tier</t>
+  </si>
+  <si>
+    <t>4MB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hot | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cold</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | Archive</t>
+    </r>
+  </si>
+  <si>
+    <t>Access uploaded files</t>
+  </si>
+  <si>
+    <t>Get access keys</t>
+  </si>
+  <si>
+    <t>Share access signature (SAS)</t>
+  </si>
+  <si>
+    <t>DEMO: Azure storage Explorer &amp; Storage Browser</t>
+  </si>
+  <si>
+    <t>Lifecycle management</t>
+  </si>
+  <si>
+    <t>Last modified</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>More than 30 days ago</t>
+  </si>
+  <si>
+    <t>Move to archive storage</t>
+  </si>
+  <si>
+    <t>Delete the blob</t>
+  </si>
+  <si>
+    <t>Move to cool storage</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Storage &gt;&gt; Storage Account &gt;&gt; Storage browser</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Storage &gt;&gt; Storage Account &gt;&gt; Overview &gt;&gt; Open in Explorer</t>
+  </si>
+  <si>
+    <t>For manipulate our files manually.</t>
+  </si>
+  <si>
+    <t>What is "Identity"?</t>
+  </si>
+  <si>
+    <t>Identity is a representation of a person, application or device.</t>
+  </si>
+  <si>
+    <t>Usually requires a password, a secret key or a certificate to prove.</t>
+  </si>
+  <si>
+    <t>Many apps require us to login to use their functionalities.</t>
+  </si>
+  <si>
+    <t>Hacks</t>
+  </si>
+  <si>
+    <t>Store password in "plain text"</t>
+  </si>
+  <si>
+    <t>Use a simple, reversible hash algorithm (MD5)</t>
+  </si>
+  <si>
+    <t>Store the "salt" along with the data</t>
+  </si>
+  <si>
+    <t>Not enforcing password change policies</t>
+  </si>
+  <si>
+    <t>Not enforcing password complexity policies</t>
+  </si>
+  <si>
+    <t>Azure provides an identity management system based on their popular "Active Directory".</t>
+  </si>
+  <si>
+    <t>Azure Active Directory (Azure AD)</t>
+  </si>
+  <si>
+    <t>Azure Active Directory is NOT the same as Active Directory.</t>
+  </si>
+  <si>
+    <t>Azure AD provides "identity as a service".</t>
+  </si>
+  <si>
+    <t>Instead of having to write code to handle users, passwords, pw reset</t>
+  </si>
+  <si>
+    <t>The AAD Model</t>
+  </si>
+  <si>
+    <t>The traditional model - Client-Server Model</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Reduced development time, easier support</t>
+  </si>
+  <si>
+    <t>More features (ex. Access review)</t>
+  </si>
+  <si>
+    <t>Centralized administration</t>
+  </si>
+  <si>
+    <t>Only one user ID and password - Single Sign-On</t>
+  </si>
+  <si>
+    <t>Integration with other Azure services</t>
+  </si>
+  <si>
+    <t>The difference between Authentication and Authorization</t>
+  </si>
+  <si>
+    <t>Authorization is ensuring that a user is permitted to perform an action.</t>
+  </si>
+  <si>
+    <t>Example: read-only, administrator,…</t>
+  </si>
+  <si>
+    <t>Azure AD Conditional Access</t>
+  </si>
+  <si>
+    <t>User A attempts to log in to the app from within the company office, as she does every day.</t>
+  </si>
+  <si>
+    <t>Administrator C attempts to log in to the app from their phone.</t>
+  </si>
+  <si>
+    <t>User B attemps to log in to the app for the first time in 4 months.</t>
+  </si>
+  <si>
+    <t>Administrator D attempts to log in to the app from a location 1200 miles from the office.</t>
+  </si>
+  <si>
+    <t>=&gt; We can treat some access attempts as "routine", and some as "not normal".</t>
+  </si>
+  <si>
+    <t>Azure AD powers other Microsoft services</t>
+  </si>
+  <si>
+    <t>Example: Azure, Skype, Outlook, One drive, Office 365, Xbox…</t>
+  </si>
+  <si>
+    <t>=&gt; Complete solution for managing users, groups, roles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Authentication is a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user proving who they are</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - user id and password.</t>
+    </r>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA or 2FA)</t>
+  </si>
+  <si>
+    <t>Require 2 or more pieces of evidence (factors) in order to log in.</t>
+  </si>
+  <si>
+    <t>Sth we know - password</t>
+  </si>
+  <si>
+    <t>Sth we have - mobile phone, access to email account</t>
+  </si>
+  <si>
+    <t>Sth we are - fingerprint</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure supports </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SMS, email, authenticator app, phone call.</t>
+    </r>
+  </si>
+  <si>
+    <t>Passwordless authentication</t>
+  </si>
+  <si>
+    <t>Higher security than Password; Higher convenient than MFA.</t>
+  </si>
+  <si>
+    <t>Example: Gestures to sign in; Face recognition; Fingerprint;</t>
+  </si>
+  <si>
+    <t>Sign in using a PIN or biometric recognition (facial, iris, or fingerprint) with Windows devices.</t>
+  </si>
+  <si>
+    <t>Our phone: "Are you attempting to sign in?"</t>
+  </si>
+  <si>
+    <t>Conditional Access; MFA; Passwordless authentication; RBAC;</t>
+  </si>
+  <si>
+    <t>Role-Based Access Control (RBAC)</t>
+  </si>
+  <si>
+    <t>Create roles that represent the common tasks of the job.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assign </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>granular permissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to that role.</t>
+    </r>
+  </si>
+  <si>
+    <t>Assign users to that role.</t>
+  </si>
+  <si>
+    <t>NOTE: Do not assign granular permissions to an individual.</t>
+  </si>
+  <si>
+    <t>Example: Reader / Contributor (RW) / Owner</t>
+  </si>
+  <si>
+    <t>Zero-Trust Model of Security</t>
+  </si>
+  <si>
+    <t>Locking all the doors, cabinets,… not only front-door.</t>
+  </si>
+  <si>
+    <t>Don't assume everything behind the firewall is safe.</t>
+  </si>
+  <si>
+    <t>Zero-Trust Principles</t>
+  </si>
+  <si>
+    <t>Verify explicitly</t>
+  </si>
+  <si>
+    <t>Assum breach</t>
+  </si>
+  <si>
+    <t>Use least priviledge access</t>
+  </si>
+  <si>
+    <t>Use every available method to validate identity and authorization.</t>
+  </si>
+  <si>
+    <t>Just-in-time (JIT)</t>
+  </si>
+  <si>
+    <t>Just-enough-access (JEA)</t>
+  </si>
+  <si>
+    <t>Security even inside the network; encryption, segmentation, thread detection.</t>
+  </si>
+  <si>
+    <t>Defense in Depth</t>
+  </si>
+  <si>
+    <t>S12.Deploy</t>
+  </si>
+  <si>
+    <t>S13.Monitor</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Perimeter</t>
+  </si>
+  <si>
+    <t>Identity &amp; Access</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Virtual network endpoint</t>
+  </si>
+  <si>
+    <t>API management</t>
+  </si>
+  <si>
+    <t>Limit remote desktop access, Windows update</t>
+  </si>
+  <si>
+    <t>DDoS, firewalls</t>
+  </si>
+  <si>
+    <t>Azure AD</t>
+  </si>
+  <si>
+    <t>Door locks and key cards</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Cloud</t>
+  </si>
+  <si>
+    <t>a cloud workload protection platform (CWPP),</t>
+  </si>
+  <si>
+    <t>that delivers cloud security posture management (CSPM).</t>
+  </si>
+  <si>
+    <t>Continuous Access</t>
+  </si>
+  <si>
+    <t>Secure score</t>
+  </si>
+  <si>
+    <t>Vulnerability assessments</t>
+  </si>
+  <si>
+    <t>Asset inventory</t>
+  </si>
+  <si>
+    <t>Regulatory compliance</t>
+  </si>
+  <si>
+    <t>File integrity monitoring</t>
+  </si>
+  <si>
+    <t>Secure</t>
+  </si>
+  <si>
+    <t>Security recommendations</t>
+  </si>
+  <si>
+    <t>JIT VM access</t>
+  </si>
+  <si>
+    <t>Adaptive network hardening</t>
+  </si>
+  <si>
+    <t>Adaptive application control</t>
+  </si>
+  <si>
+    <t>Defend</t>
+  </si>
+  <si>
+    <t>Microsoft defender</t>
+  </si>
+  <si>
+    <t>Security alerts</t>
+  </si>
+  <si>
+    <t>Integration with Microsoft Sentinel</t>
+  </si>
+  <si>
+    <t>Azure Subscription templates with Roles and Policies already defined</t>
+  </si>
+  <si>
+    <t>Create rules across all our Azure resources.</t>
+  </si>
+  <si>
+    <t>Example: All VMs must have backups =&gt; put into subscription.</t>
+  </si>
+  <si>
+    <t>Evaluate compliance to those rules.</t>
+  </si>
+  <si>
+    <t>Example of build-in policies:</t>
+  </si>
+  <si>
+    <t>Require SQL Server 12.0</t>
+  </si>
+  <si>
+    <t>Allowed Storage Account SKUs</t>
+  </si>
+  <si>
+    <t>Allowed Locations</t>
+  </si>
+  <si>
+    <t>Allowed VM SKUs</t>
+  </si>
+  <si>
+    <t>Apply tag and its default value</t>
+  </si>
+  <si>
+    <t>Not allowed resource types</t>
+  </si>
+  <si>
+    <t>Can create custom policies using JSON defintion.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: Useful only if we have </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple subscriptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Read-Only; Can not delete;</t>
+  </si>
+  <si>
+    <t>Example: Lock the VMs, so it cannot be stopped, modified.</t>
+  </si>
+  <si>
+    <t>Using RBAC, we can restrict who has access to locks.</t>
+  </si>
+  <si>
+    <t>Azure in bullet points</t>
+  </si>
+  <si>
+    <t>https://github.com/undergroundwires/Azure-in-bullet-points#az-900-microsoft-azure-fundamentals</t>
+  </si>
+  <si>
+    <t>Course wrap-up</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provide </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pay-as-you-go</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comsumption-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pricing model.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal scaling: </t>
+  </si>
+  <si>
+    <t>Vertical scaling:</t>
+  </si>
+  <si>
+    <t>out/in - adding more servers that function together as one unit</t>
+  </si>
+  <si>
+    <t>up/down - adding resources to increase power of server</t>
+  </si>
+  <si>
+    <t>=&gt; Example: Azure SQL Database</t>
+  </si>
+  <si>
+    <t>=&gt; Example: email, calendar, offtice 365…</t>
+  </si>
+  <si>
+    <t>=&gt; Example: VMs, networking, load balancers, firewalls</t>
+  </si>
+  <si>
+    <t>aims to give us the most control over provisioned hardware.</t>
+  </si>
+  <si>
+    <t>=&gt; Example: Azure functions, serverless kubernetes, SQL database serverless, Cosmos DB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">upload code packages and have them run, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without access to the hardware.</t>
+    </r>
+  </si>
+  <si>
+    <t>Contains at least one or multiple data centers with a low-latency network.</t>
+  </si>
+  <si>
+    <t>Provides better scalability, redundancy, and data residency.</t>
+  </si>
+  <si>
+    <t>Network-isolated - Not accessible by public</t>
+  </si>
+  <si>
+    <t>One or more physically discrete data centers within an Azure Region</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can be used to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>organize resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into completely distinct accounts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: the usage of VM;</t>
+  </si>
+  <si>
+    <t>Multiple subscriptions:</t>
+  </si>
+  <si>
+    <t>Environment:</t>
+  </si>
+  <si>
+    <t>Organization Structure:</t>
+  </si>
+  <si>
+    <t>Billing:</t>
+  </si>
+  <si>
+    <t>Limit a team to lower-cost resources</t>
+  </si>
+  <si>
+    <t>Costs are aggregated at the subscription level.</t>
+  </si>
+  <si>
+    <t>E.g. for production, dev, test</t>
+  </si>
+  <si>
+    <t>Isolate data for compliance or for testing/security</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>24/7 access to online documentation, community support, new Azure capabilities demo</t>
+  </si>
+  <si>
+    <t>Demo videos on Azure Friday, Microsoft mechanics</t>
+  </si>
+  <si>
+    <t>Azure Quickstart center</t>
+  </si>
+  <si>
+    <t>Azure Service health</t>
+  </si>
+  <si>
+    <t>Azure Advisor</t>
+  </si>
+  <si>
+    <t>Guided experience in the portal</t>
+  </si>
+  <si>
+    <t>Insights of Azure service health</t>
+  </si>
+  <si>
+    <t>Personalized recommendations on how to optimize our cost and performance.</t>
+  </si>
+  <si>
+    <t>Azure Knowledge Center</t>
+  </si>
+  <si>
+    <t>Community support</t>
+  </si>
+  <si>
+    <t>Basic support (Free)</t>
+  </si>
+  <si>
+    <t>Billing and subscription management support</t>
+  </si>
+  <si>
+    <t>Submit support tickets</t>
+  </si>
+  <si>
+    <t>Microsoft Tech Community</t>
+  </si>
+  <si>
+    <t>Server Fault</t>
+  </si>
+  <si>
+    <t>Azure Feedback Forums</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Tweet @AzureSupport</t>
+  </si>
+  <si>
+    <t>Read ideas and suggestions for improving Azure made by Azure users.</t>
+  </si>
+  <si>
+    <t>Review community responses to questions about System and Network Administration in Azure.</t>
+  </si>
+  <si>
+    <t>Get support by reading responses to Azure technical questions from Microsoft's developers and testers.</t>
+  </si>
+  <si>
+    <t>a searchable database that contains answers to common support questions.</t>
+  </si>
+  <si>
+    <t>Purchase Azure Premier support</t>
+  </si>
+  <si>
+    <t>Faster response time; architecture/code review; online support</t>
+  </si>
+  <si>
+    <t>Azure support plans (Paid $$$)</t>
+  </si>
+  <si>
+    <t>Support plans</t>
+  </si>
+  <si>
+    <t>Best for</t>
+  </si>
+  <si>
+    <t>Reactive technical support</t>
+  </si>
+  <si>
+    <t>Proactive technical support</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Professional Direct</t>
+  </si>
+  <si>
+    <t>Non-critical workloads</t>
+  </si>
+  <si>
+    <t>Production workloads</t>
+  </si>
+  <si>
+    <t>Business-critical workloads</t>
+  </si>
+  <si>
+    <t>1 business day</t>
+  </si>
+  <si>
+    <t>1-hour for critical cases</t>
+  </si>
+  <si>
+    <t>1-hour + priority tracking of critical cases</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Access to pool of technical experts</t>
+  </si>
+  <si>
+    <t>Azure support plans: Developer; Standard; Professional Direct;</t>
+  </si>
+  <si>
+    <t>Factors affecting costs</t>
+  </si>
+  <si>
+    <t>Different services are billed based on different factors.</t>
+  </si>
+  <si>
+    <t>Free services</t>
+  </si>
+  <si>
+    <t>Resource groups</t>
+  </si>
+  <si>
+    <t>Virtual network (upto 50)</t>
+  </si>
+  <si>
+    <t>Azure Active Directory (basic)</t>
+  </si>
+  <si>
+    <t>Network security groups</t>
+  </si>
+  <si>
+    <t>Free-tier web apps (up to 10)</t>
+  </si>
+  <si>
+    <t>Load balancer (basic)</t>
+  </si>
+  <si>
+    <t>Pay per usage (consumption model)</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>1 million executions free per month</t>
+  </si>
+  <si>
+    <t>$0.2 per million executions</t>
+  </si>
+  <si>
+    <t>Cheapest VM is $20 per month</t>
+  </si>
+  <si>
+    <t>Logic Apps</t>
+  </si>
+  <si>
+    <t>Storage (pay per GB)</t>
+  </si>
+  <si>
+    <t>Outbound bandwidth</t>
+  </si>
+  <si>
+    <t>Cognitive Services API</t>
+  </si>
+  <si>
+    <t>Pay for time (per second)</t>
+  </si>
+  <si>
+    <t>Per second billing means billing stops when the VM is stopped.</t>
+  </si>
+  <si>
+    <t>Stability in pricing</t>
+  </si>
+  <si>
+    <t>Pay a fixed price per month for computing power or storage capacity.</t>
+  </si>
+  <si>
+    <t>Whether we use it or not</t>
+  </si>
+  <si>
+    <t>Multi-tenant or isolated environment.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Discound for </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-year or 3-year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> commitment in VM (Reserved Instances)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pay for bandwidth</t>
+  </si>
+  <si>
+    <t>First 5 GB is free</t>
+  </si>
+  <si>
+    <t>Inbound data is free</t>
+  </si>
+  <si>
+    <t>Bandwidth costs are different between AZs.</t>
+  </si>
+  <si>
+    <t>Ex. 1 PB of data transfer = $52,000</t>
+  </si>
+  <si>
+    <t>Azure Pricing Calculator</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/pricing/calculator/</t>
+  </si>
+  <si>
+    <t>Azure Pricing calculator; TCO calculator;</t>
+  </si>
+  <si>
+    <t>Resource Tags;</t>
+  </si>
+  <si>
+    <t>Configurable options</t>
+  </si>
+  <si>
+    <t>Region / Tier / Subscription type / Support options / Dev/Test Pricing</t>
+  </si>
+  <si>
+    <t>Export and share the estimate</t>
+  </si>
+  <si>
+    <t>Total Cost of Ownership (TCO)</t>
+  </si>
+  <si>
+    <t>The cost of a server is more than the cost of hardware.</t>
+  </si>
+  <si>
+    <t>Other costs:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity / Cooling / Internet connectivity / </t>
+  </si>
+  <si>
+    <t>Rack space / Setup labor / Maintenance labor / Backup</t>
+  </si>
+  <si>
+    <t>Estimate services cost without deploying and running.</t>
+  </si>
+  <si>
+    <t>Compare on-premise cost vs cloud cost.</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/pricing/tco/</t>
+  </si>
+  <si>
+    <t>Azure Cost Management</t>
+  </si>
+  <si>
+    <t>Free tool for greater insights into costs.</t>
+  </si>
+  <si>
+    <t>Can set budgets, schedule reports, and analyze cost areas.</t>
+  </si>
+  <si>
+    <t>Historical breakdowns of services</t>
+  </si>
+  <si>
+    <t>Track against budget.</t>
+  </si>
+  <si>
+    <t>Azure Cost Management; Azure Advisor;</t>
+  </si>
+  <si>
+    <t>Analyze spending over time &amp; forecast.</t>
+  </si>
+  <si>
+    <t>Resource Tags</t>
+  </si>
+  <si>
+    <t>Add metadata to Azure resources for personal use.</t>
+  </si>
+  <si>
+    <t>Helps with billing and suport issues.</t>
+  </si>
+  <si>
+    <t>Ex. CreatedBy = Tung; billingcode = az-900;</t>
+  </si>
+  <si>
+    <t>Azure Tools</t>
+  </si>
+  <si>
+    <t>Azure CLI</t>
+  </si>
+  <si>
+    <t>PowerShell</t>
+  </si>
+  <si>
+    <t>Azure Portal</t>
+  </si>
+  <si>
+    <t>Azure Cloud Shell</t>
+  </si>
+  <si>
+    <t>Azure Mobile App</t>
+  </si>
+  <si>
+    <t>https://portal.azure.com/#home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure CLI </t>
+  </si>
+  <si>
+    <t>a collection of modules for managing Azure resources from PowerShell.</t>
+  </si>
+  <si>
+    <t>Azure Powershell</t>
+  </si>
+  <si>
+    <t>In background, it uses dockerized version of PowerShell/Bash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we open it for the first time, </t>
+  </si>
+  <si>
+    <t>it creates a new storage account called azcloudshell + numbers</t>
+  </si>
+  <si>
+    <t>it then creates a file share that stores our user information.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser-accessible shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for managing Azure resource</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a set of commands</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> used to create and manage Azure resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hand-On</t>
+  </si>
+  <si>
+    <t>Create resources using Azure CLI</t>
+  </si>
+  <si>
+    <t>Create new resource group:</t>
+  </si>
+  <si>
+    <t>Create VM</t>
+  </si>
+  <si>
+    <t>$ az group create --name newrg --location eastus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  --admin-username tungbui</t>
+  </si>
+  <si>
+    <t>$ az vm create --resource-group newrg --name newvm \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   --image Win2019Datacenter --public-ip-sku Standard \</t>
+  </si>
+  <si>
+    <t>Stay connected to Azure resources on iOS and Android</t>
+  </si>
+  <si>
+    <t>Monitor resources and get Azure service Health alerts</t>
+  </si>
+  <si>
+    <t>Quickly diagnose and fix issues</t>
+  </si>
+  <si>
+    <t>Manage resources through Azure Cloud Shell</t>
+  </si>
+  <si>
+    <t>Open port 80</t>
+  </si>
+  <si>
+    <t>$ az vm open-port --port 80 --resource-group newrg --name newvm</t>
+  </si>
+  <si>
+    <t>Delete resources</t>
+  </si>
+  <si>
+    <t>$ az group delete --name newrg</t>
+  </si>
+  <si>
+    <t>Azure ARC</t>
+  </si>
+  <si>
+    <t>Manage VMs, Kubernetes clusters, and databases as if they are running in Azure.</t>
+  </si>
+  <si>
+    <t>Azure Resource Manager (ARM)</t>
+  </si>
+  <si>
+    <t>The deployment and management service for Azure</t>
+  </si>
+  <si>
+    <t>Management layer that allows us to create, update, and delete resources called "deployments".</t>
+  </si>
+  <si>
+    <t>All actions that we take to manage Azure resources goes through the ARM layer.</t>
+  </si>
+  <si>
+    <t>Hands-On</t>
+  </si>
+  <si>
+    <t>Generate ARM Template in Azure Portal</t>
+  </si>
+  <si>
+    <t>Azure &gt;&gt; Create a resource &gt;&gt; Storage Account &gt;&gt; Create</t>
+  </si>
+  <si>
+    <t>At the last step (Review) &gt;&gt; Download a template for automation.</t>
+  </si>
+  <si>
+    <t>Azure Advisor; Azure Service Health; Azure Diagnostics; Azure Monitor;</t>
+  </si>
+  <si>
+    <t>Comprehensive view of the health status of Azure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notify us about Azure services that affect us. </t>
+  </si>
+  <si>
+    <t>Guide us to prepare for planned maintenance.</t>
+  </si>
+  <si>
+    <t>Consists of:</t>
+  </si>
+  <si>
+    <t>Azure Status</t>
+  </si>
+  <si>
+    <t>Service Health</t>
+  </si>
+  <si>
+    <t>Resource Health</t>
+  </si>
+  <si>
+    <t>Global view of health state of all Azure services</t>
+  </si>
+  <si>
+    <t>Customizable dashboard</t>
+  </si>
+  <si>
+    <t>Diagnose and obtain support when an Azure service issue affects our resources.</t>
+  </si>
+  <si>
+    <t>Free service that provides recommendations on:</t>
+  </si>
+  <si>
+    <t>High availability; Security; performance; operational excellence; and Cost</t>
+  </si>
+  <si>
+    <t>Analyze our deployed services and gives personalized recommendations.</t>
+  </si>
+  <si>
+    <t>Reduce costs by eliminating unprovisioned Azure ExpressRoute circuits</t>
+  </si>
+  <si>
+    <t>Buy reserved instances to save money over pay-as-you-go</t>
+  </si>
+  <si>
+    <t>Right-size or shutdown under-utilized VMs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solution for collecting, analyzing, and acting on telemetry from </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cloud and on-premises environments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>=&gt; Understand how our apps are performing and identifies issues.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard &amp; Basic</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Access tiers - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hot, Cold, Archive</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Performance tiers - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard or Premium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (low latency)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/services/active-directory/</t>
+  </si>
+  <si>
+    <t>Public Preview</t>
+  </si>
+  <si>
+    <t>Microsoft Azure Previews</t>
+  </si>
+  <si>
+    <t>Azure Active Directory previews programs</t>
+  </si>
+  <si>
+    <t>https://azure.microsoft.com/en-us/support/legal/preview-supplemental-terms/</t>
+  </si>
+  <si>
+    <t>Private preview</t>
+  </si>
+  <si>
+    <t>Any customer with the proper Azure AD license can use the service,</t>
+  </si>
+  <si>
+    <t>Not include formal support.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure invite </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a few customers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to take part in early access.</t>
+    </r>
+  </si>
+  <si>
+    <t>Generally available (GA)</t>
+  </si>
+  <si>
+    <t>Feature is open for any licensed customer to use and supported.</t>
+  </si>
+  <si>
+    <t>but normal service level agreements do NOT apply.</t>
+  </si>
+  <si>
+    <t>Azure Blueprints; Azure Policy; Resource Locks; Service Trust Portal;</t>
+  </si>
+  <si>
+    <t>SLA; Preview mode;</t>
+  </si>
+  <si>
+    <t>Service Level Agreement (SLA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Azure does not meet its own SLA guarantee, </t>
+  </si>
+  <si>
+    <t>=&gt; A discount will be applied to the customer's Azure bill (as a service credit)</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/modules/explore-azure-service-level-agreements/3-explore-slas-for-azure-products-services</t>
+  </si>
+  <si>
+    <t>Documents = a list of standards that Microsoft follows</t>
+  </si>
+  <si>
+    <t>pen test results, security assessments, white papers, FAQs,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Central location of all </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>documents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> required for Microsoft regulatory.</t>
+    </r>
+  </si>
+  <si>
+    <t>an other documents that can be used to show Microsoft's compliance efforts.</t>
+  </si>
+  <si>
+    <t>NSG (Network Security Group), use of subnets, deny by default</t>
+  </si>
+  <si>
+    <t>Formal documents to define the performance standard of Azure.</t>
+  </si>
+  <si>
+    <t>SLAs for individual Azure products &amp; services.</t>
+  </si>
+  <si>
+    <t>NOT provide SLAs for most Free or Shared services. Ex. Azure Advisor</t>
+  </si>
+  <si>
+    <t>The key characteristics:</t>
+  </si>
+  <si>
+    <t>Performance Targets</t>
+  </si>
+  <si>
+    <t>Uptime and Connectivity Guarantees</t>
+  </si>
+  <si>
+    <t>Service credits</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/learn/certifications/exams/az-900?source=learn</t>
+  </si>
+  <si>
+    <t>Exam AZ-900: Microsoft Azure Fundamentals</t>
+  </si>
+  <si>
+    <t>Build, manage, and monitor everything from simple web apps to complex cloud applications</t>
+  </si>
+  <si>
+    <t>A web-based, unified console</t>
+  </si>
+  <si>
+    <t>Create custom dashboards</t>
+  </si>
+  <si>
+    <t>Configure accessibility options</t>
+  </si>
+  <si>
+    <t>Bash (CLI) or PowerShell</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">See and manage all our </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on-premise infrastructure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Azure Marketplace</t>
+  </si>
+  <si>
+    <t>Find, try, purchase and provision apps and services from sellers.</t>
+  </si>
+  <si>
+    <t>Sellers = Microsoft partners, vendors, startups…</t>
+  </si>
+  <si>
+    <t>All solutions and services are certified to run on Azure.</t>
+  </si>
+  <si>
+    <t>containers, VM images, databases, app build, developer tools, threat detection, blockchain.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total cost of ownership (TCO)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - electricity, Internet, cooling, employees</t>
+    </r>
+  </si>
+  <si>
+    <t>Agility = new resource is one-click away</t>
+  </si>
+  <si>
+    <t>Benefit of cloud;</t>
+  </si>
+  <si>
+    <t>S4.Service</t>
+  </si>
+  <si>
+    <t>S1-3.Cloud</t>
+  </si>
+  <si>
+    <t>Azure Services</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Big data</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>DevOps</t>
+  </si>
+  <si>
+    <t>Blob; File; Queue; Table;</t>
+  </si>
+  <si>
+    <t>Cloud Service Model: IaaS, PaaS, SaaS, Serverless</t>
+  </si>
+  <si>
+    <t>Cloud Service Models</t>
+  </si>
+  <si>
+    <t>Azure Organizing Structure</t>
+  </si>
+  <si>
+    <t>Limits or Quotas on the amount of resources can be created or used.</t>
+  </si>
+  <si>
+    <t>A geographical area.</t>
+  </si>
+  <si>
+    <t>data centers equipped with independent power, cooling, and networking.</t>
+  </si>
+  <si>
+    <t>AZs are connected through high-speed, private fiber-optic network.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ARM Template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - JSON format</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM; </t>
+  </si>
+  <si>
+    <t>Benefits:</t>
+  </si>
+  <si>
+    <t>Mange infrastructure through templates =&gt; ARM template (JSON)</t>
+  </si>
+  <si>
+    <t>Deploy, monitor all resources as a group.</t>
+  </si>
+  <si>
+    <t>Define dependencies between resources in correct order.</t>
+  </si>
+  <si>
+    <t>Apply access control to all services</t>
+  </si>
+  <si>
+    <t>Apply tags to resources</t>
+  </si>
+  <si>
+    <t>Clarify the billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a logical unit of Azure services that links to an Azure account. </t>
+  </si>
+  <si>
+    <t>Azure compute services and demo</t>
+  </si>
+  <si>
+    <t>Azure networking services</t>
+  </si>
+  <si>
+    <t>Section 8-2</t>
+  </si>
+  <si>
+    <t>Demo:</t>
+  </si>
+  <si>
+    <t>Section 6-2</t>
+  </si>
+  <si>
+    <t>S7.Network</t>
+  </si>
+  <si>
+    <t>S6.Compute</t>
+  </si>
+  <si>
+    <t>S8-2.Database</t>
+  </si>
+  <si>
+    <t>Azure database (BONUS)</t>
+  </si>
+  <si>
+    <t>Perform quick tasks: REST request, timer, message from another Azure service.</t>
+  </si>
+  <si>
+    <t>Azure Batch</t>
+  </si>
+  <si>
+    <t>Large-scale parallel and high-performance computing (HPC) batch jobs</t>
+  </si>
+  <si>
+    <t>Scale to thousands of VMs.</t>
+  </si>
+  <si>
+    <t>Azure container instances (ACI)</t>
+  </si>
+  <si>
+    <t>Azure Logic Apps</t>
+  </si>
+  <si>
+    <t>A web-based designer can execute logic triggered by Azure services without writing any code.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">stores </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>common static files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the edge, closer to users to improve performance</t>
+    </r>
+  </si>
+  <si>
+    <t>Azure Virtual Networking</t>
+  </si>
+  <si>
+    <t>Enable Azure resources to communicate with each other and Internet/on-premise.</t>
+  </si>
+  <si>
+    <t>Isolation and segmentation</t>
+  </si>
+  <si>
+    <t>Internet communication</t>
+  </si>
+  <si>
+    <t>Communicate with on-premises</t>
+  </si>
+  <si>
+    <t>Route network traffic</t>
+  </si>
+  <si>
+    <t>Filter network traffic</t>
+  </si>
+  <si>
+    <t>Connect virtual networks</t>
+  </si>
+  <si>
+    <t>Communicate between Azure resources</t>
+  </si>
+  <si>
+    <t>Virtual networks &amp; Service endpoints</t>
+  </si>
+  <si>
+    <t>Point-to-site virtual private networks</t>
+  </si>
+  <si>
+    <t>Site-to-site virtual private networks</t>
+  </si>
+  <si>
+    <t>Azure ExpressRoute</t>
+  </si>
+  <si>
+    <t>Azure VPN Gateway</t>
   </si>
 </sst>
 </file>
@@ -874,9 +3416,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d;@"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,6 +3495,73 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -981,13 +3590,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -997,6 +3606,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1026,13 +3645,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1066,17 +3685,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1084,7 +3708,51 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C116F28-5F7F-4FE4-BC5B-BC5A0EE30ACB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3FFAD8-18DC-42EA-A8F6-0345B36746A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="962025"/>
+          <a:ext cx="4886325" cy="3221355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>303771</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDCAFAE-EEA9-4849-A68D-839AA2F2E0A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,8 +3768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="21374100"/>
-          <a:ext cx="4886325" cy="3221355"/>
+          <a:off x="6705600" y="6677025"/>
+          <a:ext cx="8228571" cy="4095238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,19 +3781,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>22036</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1163,13 +3831,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>406092</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1207,13 +3875,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>20585</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1239,6 +3907,427 @@
         <a:xfrm>
           <a:off x="1219201" y="8772525"/>
           <a:ext cx="4287784" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>237333</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0623F3AD-0070-45CB-AF92-77EB51CC4AEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="1152525"/>
+          <a:ext cx="6333333" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>439272</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB6FBEE-6E60-4E53-ABA8-FC462F289B90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="11068050"/>
+          <a:ext cx="4706472" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>2737</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC8A365-7A55-45B4-82B4-D5B56F869707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="10296525"/>
+          <a:ext cx="5648325" cy="1526737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580824</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B00026C-16D9-46B8-A742-3CCDAB9B19FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5724525"/>
+          <a:ext cx="4238424" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419103</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{853377B2-DB67-42B4-AF03-160EF8E40DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="1914525"/>
+          <a:ext cx="4076703" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>287964</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824D5694-A20C-47F1-A37A-3E16DD26D147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="19059525"/>
+          <a:ext cx="4555164" cy="3067050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>186960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A9D6C3D-6AF3-43E2-A89A-2E1B3BB9D867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="9363075"/>
+          <a:ext cx="2625360" cy="1704975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>24806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F56122-47D1-42B8-B18A-5579998208A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="11058525"/>
+          <a:ext cx="4248149" cy="2310806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>279113</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2355B973-09E6-4396-B9E6-DAE51969C3CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="11630025"/>
+          <a:ext cx="5765513" cy="3238500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,22 +4614,39 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1548,916 +4654,2522 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>785</v>
       </c>
       <c r="I6" s="5">
         <v>44701</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>97</v>
+        <v>785</v>
       </c>
       <c r="I7" s="5">
         <v>44701</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>97</v>
+        <v>785</v>
       </c>
       <c r="I8" s="5">
         <v>44701</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>97</v>
+        <v>784</v>
       </c>
       <c r="I9" s="5">
         <v>44701</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I10" s="5">
         <v>44701</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>813</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>124</v>
+        <v>819</v>
       </c>
       <c r="I11" s="5">
         <v>44701</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>814</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="I12" s="5">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="5">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C14" t="s">
+        <v>821</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="I14" s="5">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="5">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I16" s="5">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="5">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I18" s="5">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I19" s="5">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C20" t="s">
+        <v>550</v>
+      </c>
+      <c r="I20" s="5">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>768</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{F934C1F6-0151-4EEB-8C1F-6C5BB83878C9}"/>
-    <hyperlink ref="H6" location="'S1-4.Cloud'!A1" display="S1-4.Cloud" xr:uid="{81902934-205F-43A1-BD39-5C9756EB0BC6}"/>
-    <hyperlink ref="H7" location="'S1-4.Cloud'!A23" display="S1-4.Cloud" xr:uid="{3210CF51-A8B0-4CBB-A3D6-524A8450BC4C}"/>
-    <hyperlink ref="H8" location="'S1-4.Cloud'!A84" display="S1-4.Cloud" xr:uid="{E208BB1E-F76A-42C9-BDA1-BB4F8CD7AB20}"/>
-    <hyperlink ref="H9" location="'S1-4.Cloud'!A115" display="S1-4.Cloud" xr:uid="{6747214C-CB4E-4FCD-98D0-11806289F39A}"/>
+    <hyperlink ref="H6" location="'S1-3.Cloud'!A1" display="S1-3.Cloud" xr:uid="{81902934-205F-43A1-BD39-5C9756EB0BC6}"/>
+    <hyperlink ref="H7" location="'S1-3.Cloud'!A1" display="S1-3.Cloud" xr:uid="{3210CF51-A8B0-4CBB-A3D6-524A8450BC4C}"/>
+    <hyperlink ref="H8" location="'S1-3.Cloud'!A1" display="S1-3.Cloud" xr:uid="{E208BB1E-F76A-42C9-BDA1-BB4F8CD7AB20}"/>
+    <hyperlink ref="H9" location="S4.Service!A1" display="S4.Service" xr:uid="{6747214C-CB4E-4FCD-98D0-11806289F39A}"/>
     <hyperlink ref="H10" location="S5.AZ!A1" display="S5.AZ" xr:uid="{A8A23321-7FB3-47A0-9F17-53D381E06DD2}"/>
-    <hyperlink ref="H17" location="'S12-13.Tools'!A1" display="S12-13.Tools" xr:uid="{57B54C97-F170-49A7-BFAF-26D2E202039A}"/>
-    <hyperlink ref="H15" location="S10.Cost!A1" display="S10.Cost" xr:uid="{16996214-18FA-4261-B736-7D26A31FA405}"/>
-    <hyperlink ref="H11" location="S6.Networking!A1" display="S6.Networking" xr:uid="{6D4685BA-8EA5-47A0-816A-0E21D2D20761}"/>
-    <hyperlink ref="H12" location="S7.Compute!A1" display="S7.Compute" xr:uid="{458BE45A-F07D-4776-B2F4-3E12DEDE812A}"/>
+    <hyperlink ref="H18" location="S12.Deploy!A1" display="S12.Deploy" xr:uid="{57B54C97-F170-49A7-BFAF-26D2E202039A}"/>
+    <hyperlink ref="H16" location="S10.Cost!A1" display="S10.Cost" xr:uid="{16996214-18FA-4261-B736-7D26A31FA405}"/>
+    <hyperlink ref="H11" location="S6.Compute!A1" display="S6.Compute" xr:uid="{6D4685BA-8EA5-47A0-816A-0E21D2D20761}"/>
+    <hyperlink ref="H12" location="S7.Network!A1" display="S7.Network" xr:uid="{458BE45A-F07D-4776-B2F4-3E12DEDE812A}"/>
     <hyperlink ref="H13" location="S8.Storage!A1" display="S8.Storage" xr:uid="{A9A7D433-3A70-4B50-AA2D-E2193BEE1ED2}"/>
-    <hyperlink ref="H14" location="S9.IAM!A1" display="S9.IAM" xr:uid="{1760EE3E-5340-4B25-AA88-C59B0E791265}"/>
-    <hyperlink ref="H16" location="S11.Compliance!A1" display="S11.Compliance" xr:uid="{E5E24AB4-E2D9-43C2-AC59-8F2392A19C78}"/>
+    <hyperlink ref="H15" location="S9.IAM!A1" display="S9.IAM" xr:uid="{1760EE3E-5340-4B25-AA88-C59B0E791265}"/>
+    <hyperlink ref="H17" location="S11.Compliance!A1" display="S11.Compliance" xr:uid="{E5E24AB4-E2D9-43C2-AC59-8F2392A19C78}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{5F016AA1-056D-4BE4-9F23-4F719EC93CFF}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{67464A56-A0F8-43BE-96E2-4F155E214796}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{7BA0E16A-A56D-46B2-97A4-142D42BCCFFA}"/>
+    <hyperlink ref="H19" location="S13.Monitor!A1" display="S13.Monitor" xr:uid="{5779779A-B92B-4891-B611-7A6E9F820DCF}"/>
+    <hyperlink ref="C25" r:id="rId5" location="az-900-microsoft-azure-fundamentals" xr:uid="{2C616E34-0877-46FE-8A49-1CB896E96D2D}"/>
+    <hyperlink ref="C27" r:id="rId6" xr:uid="{E1334732-865E-4C3B-B76C-85C87C85AA54}"/>
+    <hyperlink ref="H14" location="'S8-2.Database'!A1" display="S8-2.Database" xr:uid="{7150B90B-C316-465E-81DB-784AE36DD99C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1FD9CD-1A8A-4D63-AA4D-657223D4DEC2}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C921D1A5-3632-42E0-9F64-AC2760259883}">
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{99DFB046-D432-44AE-AC47-118FA62257EC}"/>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{19984F7A-B4F5-4CEA-957D-34EF3F8C707D}"/>
+    <hyperlink ref="C44" r:id="rId1" xr:uid="{C2E50E05-F696-4A96-B864-F6025BE8929E}"/>
+    <hyperlink ref="C56" r:id="rId2" xr:uid="{A4D9AD37-8A80-4C20-9DF6-9872C608C409}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8855E5B6-7842-4B3E-870C-01AEE869D3D3}">
+  <dimension ref="A1:J74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="7" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D60" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="8" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="8" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{FF307A43-0941-483C-804F-AD356281294A}"/>
+    <hyperlink ref="C65" r:id="rId1" xr:uid="{E7D67398-78B1-47C0-9109-3411699D744B}"/>
+    <hyperlink ref="D61" r:id="rId2" xr:uid="{8096C011-6E18-4C7A-A891-42B37C28BE06}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9775EAF7-1B25-47BF-919F-616F702876B4}">
-  <dimension ref="A1:E139"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1FD9CD-1A8A-4D63-AA4D-657223D4DEC2}">
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>128</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>32</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>34</v>
+      <c r="C10" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>38</v>
+      <c r="C11" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>36</v>
+      <c r="B13" s="2" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>37</v>
+      <c r="C14" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>39</v>
+      <c r="C16" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>40</v>
+      <c r="C17" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>42</v>
+      <c r="C18" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="D41" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>53</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="2" t="s">
-        <v>47</v>
+      <c r="D50" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>50</v>
+      <c r="E51" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>49</v>
+      <c r="B54" s="2" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>54</v>
+      <c r="C55" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
-        <v>56</v>
+      <c r="B59" s="2" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>57</v>
+      <c r="C60" s="6" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E61" t="s">
-        <v>61</v>
+      <c r="C61" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E63" t="s">
-        <v>59</v>
+      <c r="C62" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E64" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C66" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C75" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C92" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C101" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C107" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C122" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C133" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="11" t="s">
-        <v>119</v>
+        <v>810</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D75" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="15" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{F9978696-4AC4-4C75-815F-51B1F3CFCA13}"/>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{31A636BC-3976-480E-AD62-5F1DFFD747F4}"/>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{99DFB046-D432-44AE-AC47-118FA62257EC}"/>
+    <hyperlink ref="C14" r:id="rId1" location="home" xr:uid="{3F583AB2-E067-434D-98C4-FC09F58DD388}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBF0EB6-F623-40EB-86AF-7E70546B9986}">
-  <dimension ref="A1:E45"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D087F3A4-DCD6-4FEE-88C8-7B7EBA56E2DD}">
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>162</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>122</v>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>132</v>
+      <c r="D9" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
-        <v>133</v>
+      <c r="D10" s="15" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>134</v>
+      <c r="E11" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>143</v>
+      <c r="D12" s="15" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="15" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="15" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="G39" s="20" t="s">
+        <v>607</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="M39" s="20" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>604</v>
+      </c>
+      <c r="G40" t="s">
+        <v>609</v>
+      </c>
+      <c r="J40" t="s">
+        <v>610</v>
+      </c>
+      <c r="M40" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>605</v>
+      </c>
+      <c r="G41" t="s">
+        <v>612</v>
+      </c>
+      <c r="J41" t="s">
+        <v>613</v>
+      </c>
+      <c r="M41" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>606</v>
+      </c>
+      <c r="G42" t="s">
+        <v>615</v>
+      </c>
+      <c r="J42" t="s">
+        <v>615</v>
+      </c>
+      <c r="M42" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="F50" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="F51" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F52" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{2C227538-FBD7-488F-AFF5-F7E948296911}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9775EAF7-1B25-47BF-919F-616F702876B4}">
+  <dimension ref="A1:G116"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C94" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E97" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="G97" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E98" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G98" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C101" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="8"/>
+      <c r="D113" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C114" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C116" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{F9978696-4AC4-4C75-815F-51B1F3CFCA13}"/>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{31A636BC-3976-480E-AD62-5F1DFFD747F4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA93792-27AF-417B-9300-A7B967DFB3BC}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="18" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="18" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="18" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>794</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{132B2921-7430-4743-9571-24EBBD0B68DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBF0EB6-F623-40EB-86AF-7E70546B9986}">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="14" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2469,487 +7181,1709 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EA67B6-5A94-4599-80F5-ED036FAF4E69}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:H158"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>248</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>250</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>251</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>252</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>253</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>254</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>255</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>257</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>259</v>
+      </c>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C100" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>248</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>250</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>331</v>
+      </c>
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>278</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>280</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>281</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>111</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>283</v>
+      </c>
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>285</v>
+      </c>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>286</v>
+      </c>
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>288</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>287</v>
+      </c>
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>222</v>
+      </c>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C123" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>248</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>250</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>329</v>
+      </c>
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>297</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>280</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>281</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>298</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>111</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>304</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>305</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>308</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C144" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>248</v>
+      </c>
+      <c r="H146" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>250</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>314</v>
+      </c>
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>315</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>111</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>316</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>317</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>254</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>256</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>323</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>325</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>327</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{E2B4A1A7-1BDB-402E-9A9E-12CE65E342BB}"/>
+    <hyperlink ref="H134" location="S8.Storage!A1" display="S8.Storage!A1" xr:uid="{A467CAA2-1959-43AE-A1B4-5981125CD271}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514871C4-A6DC-4585-96F7-65FBBC0F92BA}">
+  <dimension ref="A1:J74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+      <c r="C54" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{282F2ECF-3FD5-4313-88CC-ABF884BCF9BF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE07474-4584-49F9-9EF1-56C2D24E6948}">
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>102</v>
+      <c r="B18" s="2" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>172</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>173</v>
+        <v>737</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>175</v>
+      <c r="C22" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>177</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>178</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>179</v>
+      <c r="C28" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>361</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>362</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>365</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>205</v>
-      </c>
-      <c r="D63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C73" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D77" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>379</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="I53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>388</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>391</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>392</v>
+      </c>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>393</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>396</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>399</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>400</v>
+      </c>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>401</v>
+      </c>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>402</v>
+      </c>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>323</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>403</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C75" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C83" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>257</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>413</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>416</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>417</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C91" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="I88" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>426</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C98" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C100" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="12"/>
-      <c r="C104" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="8" t="s">
-        <v>242</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C95" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{E2B4A1A7-1BDB-402E-9A9E-12CE65E342BB}"/>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{EE210C0D-8505-478B-9089-C006231F47D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514871C4-A6DC-4585-96F7-65FBBC0F92BA}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A609B9-7D33-4C62-B5A1-2362C1C3D160}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2958,141 +8892,539 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>815</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>10</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{282F2ECF-3FD5-4313-88CC-ABF884BCF9BF}"/>
+    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{04FCD4D8-BF08-478B-81CA-BA4989C49BD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE07474-4584-49F9-9EF1-56C2D24E6948}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57583CBD-E4B4-44ED-A3D9-3BD196178615}">
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{EE210C0D-8505-478B-9089-C006231F47D0}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57583CBD-E4B4-44ED-A3D9-3BD196178615}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E102" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="E103" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="E105" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E106" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E107" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E108" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="12"/>
+      <c r="C112" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C115" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C121" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{E130131B-52F2-43EB-AA10-785AAE7F6CAB}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{36948F1A-1052-4FB3-9F63-4BE48AE95835}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C921D1A5-3632-42E0-9F64-AC2760259883}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{19984F7A-B4F5-4CEA-957D-34EF3F8C707D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8855E5B6-7842-4B3E-870C-01AEE869D3D3}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{FF307A43-0941-483C-804F-AD356281294A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/202206_Azure_AZ-900/AZ-900.xlsx
+++ b/202206_Azure_AZ-900/AZ-900.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\202206_Azure_AZ-900\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF7A2E-B80A-4D85-A9DB-863AA6BB958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664C46BE-6420-4246-8E45-251B4D7E15B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="S12.Deploy" sheetId="8" r:id="rId12"/>
     <sheet name="S13.Monitor" sheetId="11" r:id="rId13"/>
     <sheet name="S14.Security" sheetId="14" r:id="rId14"/>
+    <sheet name="QA" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="1335">
   <si>
     <t>AZ-900: Microsoft Azure Fundamentals Exam Prep - MAY 2022</t>
   </si>
@@ -1927,9 +1928,6 @@
   </si>
   <si>
     <t>Verify explicitly</t>
-  </si>
-  <si>
-    <t>Assum breach</t>
   </si>
   <si>
     <t>Use least priviledge access</t>
@@ -5082,6 +5080,1546 @@
   </si>
   <si>
     <t>Azure &gt;&gt; Create a Resource &gt;&gt; Compute &gt;&gt; Web App</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso hosts a legacy CRM application that runs on an Azure VM scale set. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application runs at a steady state of around 30% resource utilization. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, during month end closing activities, the application spikes to 90% resource utilization for extended periods during the last week of the month. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure allows Contoso IT to meet these spikes in resource demand at the push of a button, paying for the additional capacity only when needed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This is an example of:</t>
+    </r>
+  </si>
+  <si>
+    <t>Scalability </t>
+  </si>
+  <si>
+    <t>Fault Tolerance</t>
+  </si>
+  <si>
+    <t>High Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly, who works in IT Operations, wants to automate a task using a script she wrote. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She selected </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Functions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to host the job, instead of Azure Virtual Machines (IaaS). Does this service meet the solution criteria?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You are responsible for recommending infrastructure architectures for applications at Contoso. </t>
+  </si>
+  <si>
+    <t>Azure Load Balancer</t>
+  </si>
+  <si>
+    <t>Azure Traffic Manager</t>
+  </si>
+  <si>
+    <t>Azure Front Door</t>
+  </si>
+  <si>
+    <t>Azure App Gateway</t>
+  </si>
+  <si>
+    <t>Which Azure service would you use to correlate events from multiple Azure resources in a central repository? (choose the best answer)</t>
+  </si>
+  <si>
+    <t>Azure Data Lake</t>
+  </si>
+  <si>
+    <t>Azure Log Analytics</t>
+  </si>
+  <si>
+    <t>Azure Event Grid</t>
+  </si>
+  <si>
+    <t>Azure Event Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Contoso Corp Financial Services team needs to automate several business processes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The service must have built-in connectivity to their existing platforms, like SalesForce and SAP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They also require the flexibility to run develop and run small snippets of code if necessary. </t>
+  </si>
+  <si>
+    <t>Which Microsoft service will best fit their use case?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They need to create workflows in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>low-code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> environment with a visual interface. </t>
+    </r>
+  </si>
+  <si>
+    <t>Power Automate</t>
+  </si>
+  <si>
+    <t>Azure Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso has messages from a variety of sources (many Azure services) that need to be need to be relayed to an application. </t>
+  </si>
+  <si>
+    <t>Which Azure service would be best suited to the task?</t>
+  </si>
+  <si>
+    <t>Azure Event Hubs</t>
+  </si>
+  <si>
+    <t>Azure IoT Hub</t>
+  </si>
+  <si>
+    <t>Azure Service Bus</t>
+  </si>
+  <si>
+    <t>Azure App Insights</t>
+  </si>
+  <si>
+    <t>Azure Sentinel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitor health and availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of your Azure Kubernetes Service (AKS) cluster with:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Azure Container Instances provides</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> feature parity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Linux and Windows containers</t>
+    </r>
+  </si>
+  <si>
+    <t>Which service can best help meet this requirement?</t>
+  </si>
+  <si>
+    <t>Azure DevOps</t>
+  </si>
+  <si>
+    <t>Azure Application Insights</t>
+  </si>
+  <si>
+    <t>Azure Automation </t>
+  </si>
+  <si>
+    <r>
+      <t>Contoso needs to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> automate version updates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of their PaaS application hosted in Azure. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You attempt to create several Azure SQL Database instances are receive a message that you must increase the limits in your Azure subscription. </t>
+  </si>
+  <si>
+    <t>What should you do?</t>
+  </si>
+  <si>
+    <t>Create an Azure policy</t>
+  </si>
+  <si>
+    <t>Open a support request</t>
+  </si>
+  <si>
+    <t>Upgrade your Azure subscription level</t>
+  </si>
+  <si>
+    <t>Create an Azure Blueprint</t>
+  </si>
+  <si>
+    <t>Which of the following can help achieve this requirement?</t>
+  </si>
+  <si>
+    <t>Resource Groups</t>
+  </si>
+  <si>
+    <t>Role Based Access Control (RBAC)</t>
+  </si>
+  <si>
+    <t>Access Policies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contoso's Security team wants to apply standards across deployments in </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple Azure subscriptions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso plans to implement a hybrid cloud architecture utilizing Azure. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They need to connect on-premises application resources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The solution should minimize latency and insidethemicrosoftcloud.com maximize security. </t>
+  </si>
+  <si>
+    <t>Which option should they choose?</t>
+  </si>
+  <si>
+    <t>Point-to-Site VPN</t>
+  </si>
+  <si>
+    <t>Site-to-Site VPN</t>
+  </si>
+  <si>
+    <t>Azure Application Gateway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The solution you choose should minimize expense during the low-scale pilot deployment. </t>
+  </si>
+  <si>
+    <t>Which option will you choose?</t>
+  </si>
+  <si>
+    <t>Storage for Azure VMs is hosted in which Azure Storage type?</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Disk</t>
+  </si>
+  <si>
+    <t>Blob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso IT wants to configure separate Azure subscriptions for different environments (production, development, test) and products. </t>
+  </si>
+  <si>
+    <t>Can they associate multiple Azure subscriptions to the same Azure Active Directory tenant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Azure ______ is a set of datacenters deployed within a latency-defined perimeter and </t>
+  </si>
+  <si>
+    <t>connected through a dedicated regional low-latency network.</t>
+  </si>
+  <si>
+    <t>Availability Zone</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Datacenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You run a small accounting business and need to host a custom WordPress site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You would like to host this in Azure. </t>
+  </si>
+  <si>
+    <t>Microsoft Store for Business</t>
+  </si>
+  <si>
+    <t>Microsoft Store for Education</t>
+  </si>
+  <si>
+    <t>Azure App Service</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Where can you find an offering to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quickly deploy a solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitor health and performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of microservices applications running on Azure Kubernetes Service (AKS) with:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso IT has deployed a group of Azure VMs for hosting production. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They want </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best practices recommendations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>high availability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of their VM resources. </t>
+    </r>
+  </si>
+  <si>
+    <t>Which Azure service will best fulfill this need?</t>
+  </si>
+  <si>
+    <t>Azure WebJobs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Contoso IT Operations team needs to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their customer-facing web apps for </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>performance anomalies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso IT has deployed an Azure VM scale set for a frontend web application. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Will the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Advisor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tool provide recommendations for these existing resources?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Will the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Azure Advisor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tool provide recommendations for these existing resources?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You can find </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recommendations for security best practices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> security configuration for Azure Kubernetes Service (AKS) with:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure Container Instances enable running containers </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> servers host servers to manage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure Container Instances enable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elastic bursting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Azure Kubernetes Service</t>
+    </r>
+  </si>
+  <si>
+    <t>Which load balancing options should you use?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You need to ensure users can access the application </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from any country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the world with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minimal latency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Which</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> load balancing options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should they use?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They need to ensure users can access the application from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any country</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the world with minimal latency. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso IT has deployed multiple Azure VM across 15 virtual networks. </t>
+  </si>
+  <si>
+    <t>Create a network security group (NSG)</t>
+  </si>
+  <si>
+    <t>Deploy an Azure Firewall</t>
+  </si>
+  <si>
+    <t>Deploy an Azure Load Balancer</t>
+  </si>
+  <si>
+    <t>Deploy a Virtual Network Gateway</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How can you most securely </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>limit inbound traffic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and protect these VMs from unwanted inbound requests? (choose the best answer)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You have a web farm that . </t>
+  </si>
+  <si>
+    <t>Which option should you choose?</t>
+  </si>
+  <si>
+    <t>Network Security Group (NSG)</t>
+  </si>
+  <si>
+    <t>Management Group</t>
+  </si>
+  <si>
+    <t>Application Security Group (ASG)</t>
+  </si>
+  <si>
+    <t>Resource Group</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You need to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restrict communication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for current and future resources with a minimum of administrative effort. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tailspin Toys relies heavily on Azure Active Directory for cloud identity. </t>
+  </si>
+  <si>
+    <t>Which service should they choose?</t>
+  </si>
+  <si>
+    <t>Azure Identity Protection</t>
+  </si>
+  <si>
+    <t>Azure Advanced Threat Protection (ATP)</t>
+  </si>
+  <si>
+    <t>Azure DDoS</t>
+  </si>
+  <si>
+    <t>Azure Information Protection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They want to more effectively </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>protect their identities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>external threats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to configure access to Office 365 resources for users at Contoso. </t>
+  </si>
+  <si>
+    <t>Microsoft 365 groups</t>
+  </si>
+  <si>
+    <t>Security group</t>
+  </si>
+  <si>
+    <t>Management groups</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To group users for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>assignment of permissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which of the following options can you use?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The Contoso Security team has implemented a new security policy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When users connect from an unusual location, they must be prompted for MFA. </t>
+  </si>
+  <si>
+    <t>Which feature will you implement?</t>
+  </si>
+  <si>
+    <t>Azure MFA</t>
+  </si>
+  <si>
+    <t>Passthrough Authentication (PTA)</t>
+  </si>
+  <si>
+    <t>Azure AD Identity Protection</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You need to implement multi-factor authentication for your Azure Active Directory users. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when users are not in a trusted location on an unmanaged device. </t>
+  </si>
+  <si>
+    <t>Which feature should you implement? (choose the best answer)</t>
+  </si>
+  <si>
+    <t>Privileged Identity Management</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, you only want to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompt for an additional authentication factor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso IT has deployed a group of VMs in Azure. </t>
+  </si>
+  <si>
+    <t>Which tool should they use? (choose the best answer)</t>
+  </si>
+  <si>
+    <t>Azure Price Calculator</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They want to identify recommendations on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how to reduce the cost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of running these VMs. </t>
+    </r>
+  </si>
+  <si>
+    <t>Which service should you use?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You need to identify deviations from </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft security best practices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in your Azure cloud infrastructure. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Contoso's Security team wants to implement selective use of multi-factor authentication (MFA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Which service should they implement?</t>
+  </si>
+  <si>
+    <t>Azure AD App Proxy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>based on risk associated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authentication request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She wants to do this with a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>minimum of expense and maintenance effort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contoso hosts a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>non-HTTP(S)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mobile app available around the world. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Your company hosts a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">global web application. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Which solution would you recommend for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>load balancing HTTPS traffic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a web farm in a </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single Azure region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure VMs in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>different subnets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the same virtual network can communicate by </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure VMs in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>different virtual networks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can communicate by </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They want </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>guidance on configuring the virtual network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for these resources.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/azure/active-directory/authentication/tutorial-risk-based-sspr-mfa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If accessing from an anonymous IP, they should be </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>forced to reset their password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>These policies work with existing Azure AD Conditional Access policies as an extra layer of protection for your organization.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To protect your users, you can configure </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>risk-based policies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Azure Active Directory (Azure AD) that automatically respond to risky behaviors. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure AD Identity Protection policies can </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automatically block a sign-in attempt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">require additional action, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>require a password change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prompt for Azure AD Multi-Factor Authentication</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As part of a hybrid cloud deployment at Contoso, you need to connect Contoso's </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on-premises datacenter to Azure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>Assume breach</t>
+  </si>
+  <si>
+    <t>More questions</t>
+  </si>
+  <si>
+    <t>1 - Can we move VMs to new subscriptions?</t>
+  </si>
+  <si>
+    <t>2 - Compliance manager can be accessed from Microsoft Trust Center?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - Where Azure Monitor store event data? </t>
+  </si>
+  <si>
+    <t>Blob storage account</t>
+  </si>
+  <si>
+    <t>a Log Analytics namespace</t>
   </si>
 </sst>
 </file>
@@ -7057,7 +8595,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I6" s="5">
         <v>44701</v>
@@ -7071,7 +8609,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I7" s="5">
         <v>44701</v>
@@ -7085,7 +8623,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I8" s="5">
         <v>44701</v>
@@ -7099,7 +8637,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I9" s="5">
         <v>44701</v>
@@ -7124,10 +8662,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I11" s="5">
         <v>44701</v>
@@ -7138,10 +8676,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I12" s="5">
         <v>44702</v>
@@ -7163,13 +8701,13 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I14" s="5">
         <v>44705</v>
@@ -7225,7 +8763,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I18" s="5">
         <v>44704</v>
@@ -7239,7 +8777,7 @@
         <v>15</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I19" s="5">
         <v>44704</v>
@@ -7250,10 +8788,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="I20" s="5">
         <v>44708</v>
@@ -7261,22 +8799,22 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -7324,22 +8862,22 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7352,367 +8890,367 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C51" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C52" s="25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C79" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C80" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -7742,12 +9280,12 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -7825,80 +9363,80 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C22" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D37" s="15" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -7908,52 +9446,52 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C49" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
@@ -7963,57 +9501,57 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="67" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -8026,152 +9564,152 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D71" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D73" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D74" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D75" s="7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D78" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D79" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D85" s="26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D94" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D97" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D100" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="104" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -8184,77 +9722,77 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="2" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -8273,7 +9811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1FD9CD-1A8A-4D63-AA4D-657223D4DEC2}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
@@ -8284,17 +9822,17 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8307,323 +9845,323 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C27" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C41" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D41" t="s">
         <v>667</v>
-      </c>
-      <c r="D41" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E43" s="29" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E45" s="29" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E46" s="29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E47" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E49" s="29" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E51" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D72" t="s">
         <v>685</v>
-      </c>
-      <c r="D72" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" s="13" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -8640,8 +10178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D087F3A4-DCD6-4FEE-88C8-7B7EBA56E2DD}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8651,17 +10189,17 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -8674,299 +10212,299 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D13" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D23" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D25" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D31" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" s="21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="G40" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>262</v>
       </c>
       <c r="M40" s="20" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G41" t="s">
+        <v>587</v>
+      </c>
+      <c r="J41" t="s">
         <v>588</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>589</v>
-      </c>
-      <c r="M41" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G42" t="s">
+        <v>590</v>
+      </c>
+      <c r="J42" t="s">
         <v>591</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>592</v>
-      </c>
-      <c r="M42" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G43" t="s">
+        <v>593</v>
+      </c>
+      <c r="J43" t="s">
+        <v>593</v>
+      </c>
+      <c r="M43" t="s">
         <v>594</v>
-      </c>
-      <c r="J43" t="s">
-        <v>594</v>
-      </c>
-      <c r="M43" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D51" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F51" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D52" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D53" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F53" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -8976,62 +10514,62 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C70" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C77" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C80" s="8" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
   </sheetData>
@@ -9064,128 +10602,128 @@
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D17" s="15" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>1076</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" s="15" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" s="29" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -9197,11 +10735,1177 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639368DB-C6B4-49D1-A365-259C7336D609}">
+  <dimension ref="B2:L257"/>
+  <sheetViews>
+    <sheetView topLeftCell="A240" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="12" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="12" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="12" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="12"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="12" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="2" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="2" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C133" s="2" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C138" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D138" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C143" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C152" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D158" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C163" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C164" s="12"/>
+      <c r="D164" s="21"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="21"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="21"/>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="21"/>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C168" s="12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D168" s="21"/>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C169" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C170" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D170" s="21"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="12" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>1309</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>1312</v>
+      </c>
+      <c r="L211" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L212" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>445</v>
+      </c>
+      <c r="L213" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C214" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L214" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L215" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C221" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C232" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B237" s="14" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C239" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="2" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L210" r:id="rId1" xr:uid="{5733884A-3D2C-4073-9A59-4F5564AA6119}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9775EAF7-1B25-47BF-919F-616F702876B4}">
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
@@ -9222,7 +11926,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9491,7 +12195,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -9506,7 +12210,7 @@
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -9526,18 +12230,18 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E97" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G97" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E98" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G98" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
@@ -9547,7 +12251,7 @@
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
@@ -9646,7 +12350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA93792-27AF-417B-9300-A7B967DFB3BC}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
@@ -9657,7 +12361,7 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -9670,7 +12374,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9705,12 +12409,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -9725,7 +12429,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -9735,7 +12439,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -9750,7 +12454,7 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -9775,12 +12479,12 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -9795,47 +12499,47 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -9852,7 +12556,7 @@
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9895,17 +12599,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9959,7 +12663,7 @@
         <v>127</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -9974,12 +12678,12 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -9990,12 +12694,12 @@
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -10038,7 +12742,7 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -10053,7 +12757,7 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -10068,57 +12772,57 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C49" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D52" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D54" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D56" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
@@ -10154,7 +12858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EA67B6-5A94-4599-80F5-ED036FAF4E69}">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
@@ -10171,7 +12875,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C2" t="s">
         <v>268</v>
@@ -10199,7 +12903,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -10249,7 +12953,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -10385,7 +13089,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D50" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -10430,22 +13134,22 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -10455,12 +13159,12 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -10470,12 +13174,12 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="76" spans="2:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>9</v>
@@ -10523,7 +13227,7 @@
         <v>249</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
@@ -10576,13 +13280,13 @@
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H91" s="16"/>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H92" s="16"/>
     </row>
@@ -10602,10 +13306,10 @@
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
+        <v>846</v>
+      </c>
+      <c r="H95" s="7" t="s">
         <v>847</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.25">
@@ -10633,7 +13337,7 @@
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C102" s="15" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
@@ -10668,7 +13372,7 @@
         <v>274</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
@@ -10798,7 +13502,7 @@
         <v>292</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="131" spans="3:8" x14ac:dyDescent="0.25">
@@ -11009,7 +13713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514871C4-A6DC-4585-96F7-65FBBC0F92BA}">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -11020,17 +13724,17 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11038,7 +13742,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -11079,7 +13783,7 @@
         <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11189,7 +13893,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
@@ -11239,7 +13943,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
@@ -11275,211 +13979,211 @@
     </row>
     <row r="60" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C90" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E90" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C91" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E91" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E92" t="s">
         <v>1048</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D95" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D96" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>
@@ -11495,7 +14199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE07474-4584-49F9-9EF1-56C2D24E6948}">
   <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
@@ -11516,7 +14220,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -11539,57 +14243,57 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -11604,12 +14308,12 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -11624,57 +14328,57 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -11692,7 +14396,7 @@
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -11717,12 +14421,12 @@
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
@@ -11747,65 +14451,65 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D63" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F71" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H71" s="20" t="s">
         <v>1130</v>
-      </c>
-      <c r="H71" s="20" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
@@ -11813,80 +14517,80 @@
         <v>366</v>
       </c>
       <c r="H72" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H73" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D87" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
@@ -11894,57 +14598,57 @@
         <v>92</v>
       </c>
       <c r="I90" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="I91" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D92" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F94" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H94" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F95" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H95" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F96" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H96" t="s">
         <v>1156</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F97" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H97" t="s">
         <v>1158</v>
-      </c>
-      <c r="H97" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
@@ -12095,7 +14799,7 @@
     </row>
     <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="125" spans="4:9" x14ac:dyDescent="0.25">
@@ -12342,7 +15046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A609B9-7D33-4C62-B5A1-2362C1C3D160}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
@@ -12353,70 +15057,70 @@
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -12426,12 +15130,12 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -12439,25 +15143,25 @@
         <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C31" s="8" t="s">
+        <v>950</v>
+      </c>
+      <c r="D31" t="s">
         <v>951</v>
-      </c>
-      <c r="D31" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
@@ -12465,7 +15169,7 @@
         <v>246</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
@@ -12473,34 +15177,34 @@
         <v>248</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
+        <v>968</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>969</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
+        <v>955</v>
+      </c>
+      <c r="H39" t="s">
         <v>956</v>
-      </c>
-      <c r="H39" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
@@ -12508,46 +15212,46 @@
         <v>337</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
+        <v>958</v>
+      </c>
+      <c r="H41" s="16" t="s">
         <v>959</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H42" s="7" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="H43" s="7" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>259</v>
@@ -12555,28 +15259,28 @@
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
+        <v>971</v>
+      </c>
+      <c r="H47" s="7" t="s">
         <v>972</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
+        <v>973</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>974</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>975</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H49" s="7" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H50" s="16" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
@@ -12586,37 +15290,37 @@
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
+        <v>977</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>978</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
+        <v>979</v>
+      </c>
+      <c r="H53" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="H53" s="16" t="s">
-        <v>981</v>
-      </c>
       <c r="I53" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H54" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I54" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H55" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I55" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
@@ -12624,148 +15328,148 @@
         <v>364</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
+        <v>988</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>989</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
+        <v>990</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>991</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D61" s="15" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D63" s="15" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C68" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C76" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="86" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
@@ -12775,37 +15479,37 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="105" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
@@ -12818,77 +15522,77 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -12904,8 +15608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57583CBD-E4B4-44ED-A3D9-3BD196178615}">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12920,17 +15624,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -13003,7 +15707,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -13013,7 +15717,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -13033,7 +15737,7 @@
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -13048,12 +15752,12 @@
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
@@ -13063,7 +15767,7 @@
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
@@ -13108,17 +15812,17 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
@@ -13128,7 +15832,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
@@ -13158,17 +15862,17 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -13271,57 +15975,57 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D108" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D109" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C112" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -13329,33 +16033,33 @@
         <v>248</v>
       </c>
       <c r="I115" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -13385,53 +16089,53 @@
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D129" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D130" s="7" t="s">
-        <v>476</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D132" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C134" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C138" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E138" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C139" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E139" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
@@ -13439,130 +16143,130 @@
         <v>153</v>
       </c>
       <c r="E140" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C141" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E141" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C142" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C143" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E143" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C144" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E144" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12"/>
       <c r="C148" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C151" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C157" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C162" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
